--- a/classification/droptc/neo-bert/unfreeze/37622020/prediction.xlsx
+++ b/classification/droptc/neo-bert/unfreeze/37622020/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9996522665023804</v>
+        <v>0.987116277217865</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9271212816238403</v>
+        <v>0.9989216327667236</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9987146854400635</v>
+        <v>0.8939529657363892</v>
       </c>
     </row>
     <row r="5">
@@ -562,19 +562,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E5" t="b">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9783031344413757</v>
+        <v>0.9849827885627747</v>
       </c>
     </row>
     <row r="6">
@@ -590,19 +590,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9987210631370544</v>
+        <v>0.9917775392532349</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999291896820068</v>
+        <v>0.9889131188392639</v>
       </c>
     </row>
     <row r="8">
@@ -646,19 +646,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8623100519180298</v>
+        <v>0.8557249307632446</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9966565370559692</v>
+        <v>0.9730042219161987</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999639987945557</v>
+        <v>0.9909297823905945</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9989984631538391</v>
+        <v>0.9853695034980774</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.997958779335022</v>
+        <v>0.7349055409431458</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.998264491558075</v>
+        <v>0.998925507068634</v>
       </c>
     </row>
     <row r="14">
@@ -819,14 +819,14 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9867041110992432</v>
+        <v>0.6705532670021057</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9988664388656616</v>
+        <v>0.9133569598197937</v>
       </c>
     </row>
     <row r="16">
@@ -870,19 +870,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9977439641952515</v>
+        <v>0.4562207758426666</v>
       </c>
     </row>
     <row r="17">
@@ -898,19 +898,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E17" t="b">
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9966565370559692</v>
+        <v>0.9925270080566406</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.991787850856781</v>
+        <v>0.9930898547172546</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9998284578323364</v>
+        <v>0.998925507068634</v>
       </c>
     </row>
     <row r="20">
@@ -982,19 +982,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E20" t="b">
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999291896820068</v>
+        <v>0.9883670210838318</v>
       </c>
     </row>
     <row r="21">
@@ -1010,19 +1010,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E21" t="b">
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999747276306152</v>
+        <v>0.9552181363105774</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8866507411003113</v>
+        <v>0.9971653819084167</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9995651841163635</v>
+        <v>0.9971653819084167</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9978604912757874</v>
+        <v>0.996970534324646</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9991394281387329</v>
+        <v>0.9844143390655518</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9988664388656616</v>
+        <v>0.707980751991272</v>
       </c>
     </row>
     <row r="27">
@@ -1178,19 +1178,19 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E27" t="b">
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9999459981918335</v>
+        <v>0.9951504468917847</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9998668432235718</v>
+        <v>0.9806761741638184</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9998117089271545</v>
+        <v>0.8699525594711304</v>
       </c>
     </row>
     <row r="30">
@@ -1262,19 +1262,19 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E30" t="b">
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8016452789306641</v>
+        <v>0.8951560258865356</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9998998641967773</v>
+        <v>0.7264730334281921</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9998568296432495</v>
+        <v>0.9976886510848999</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9999856948852539</v>
+        <v>0.9992648959159851</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9999291896820068</v>
+        <v>0.9925832748413086</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9999291896820068</v>
+        <v>0.998047947883606</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9997215867042542</v>
+        <v>0.5395467281341553</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9835020899772644</v>
+        <v>0.9709568619728088</v>
       </c>
     </row>
     <row r="38">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1495,10 +1495,10 @@
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9991154074668884</v>
+        <v>0.8703644275665283</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9871035218238831</v>
+        <v>0.9257999062538147</v>
       </c>
     </row>
     <row r="40">
@@ -1542,19 +1542,19 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E40" t="b">
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9984978437423706</v>
+        <v>0.8741070032119751</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9991815686225891</v>
+        <v>0.9860796332359314</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9987428784370422</v>
+        <v>0.7120749950408936</v>
       </c>
     </row>
     <row r="43">
@@ -1626,19 +1626,19 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E43" t="b">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9998189806938171</v>
+        <v>0.930162250995636</v>
       </c>
     </row>
     <row r="44">
@@ -1659,14 +1659,14 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.94338458776474</v>
+        <v>0.9896416068077087</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9854249358177185</v>
+        <v>0.9916775226593018</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.999839186668396</v>
+        <v>0.4952220618724823</v>
       </c>
     </row>
     <row r="47">
@@ -1738,19 +1738,19 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E47" t="b">
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9999244213104248</v>
+        <v>0.7505818009376526</v>
       </c>
     </row>
     <row r="48">
@@ -1766,19 +1766,19 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E48" t="b">
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9998437166213989</v>
+        <v>0.992780864238739</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.990211009979248</v>
+        <v>0.9827196598052979</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E50" t="b">
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9978651404380798</v>
+        <v>0.8139039874076843</v>
       </c>
     </row>
     <row r="51">
@@ -1850,19 +1850,19 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E51" t="b">
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9992826581001282</v>
+        <v>0.9726998209953308</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9999399185180664</v>
+        <v>0.9942633509635925</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.6970495581626892</v>
+        <v>0.9927566647529602</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9998337030410767</v>
+        <v>0.9995551705360413</v>
       </c>
     </row>
     <row r="55">
@@ -1962,19 +1962,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E55" t="b">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9983127117156982</v>
+        <v>0.9128674268722534</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9994599223136902</v>
+        <v>0.9949500560760498</v>
       </c>
     </row>
     <row r="57">
@@ -2023,14 +2023,14 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9902021884918213</v>
+        <v>0.5496746301651001</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E58" t="b">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9934670329093933</v>
+        <v>0.8194456696510315</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9608821868896484</v>
+        <v>0.5293661952018738</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9988664388656616</v>
+        <v>0.998925507068634</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E61" t="b">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9433456659317017</v>
+        <v>0.7817836999893188</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.8803682923316956</v>
+        <v>0.9573646187782288</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9998032450675964</v>
+        <v>0.926328718662262</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9998117089271545</v>
+        <v>0.9727415442466736</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9982220530509949</v>
+        <v>0.5752530694007874</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9999291896820068</v>
+        <v>0.7895095944404602</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9999291896820068</v>
+        <v>0.978368878364563</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9886080026626587</v>
+        <v>0.8732841014862061</v>
       </c>
     </row>
     <row r="69">
@@ -2354,19 +2354,19 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E69" t="b">
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9929821491241455</v>
+        <v>0.9941563606262207</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9999322891235352</v>
+        <v>0.9179021120071411</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9949971437454224</v>
+        <v>0.9987908005714417</v>
       </c>
     </row>
     <row r="72">
@@ -2438,19 +2438,19 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E72" t="b">
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.7051376700401306</v>
+        <v>0.9883670210838318</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9999237060546875</v>
+        <v>0.998925507068634</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9613185524940491</v>
+        <v>0.9971653819084167</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9998800754547119</v>
+        <v>0.9789272546768188</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9998406171798706</v>
+        <v>0.9986550807952881</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.999742329120636</v>
+        <v>0.9942674040794373</v>
       </c>
     </row>
     <row r="78">
@@ -2606,19 +2606,19 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E78" t="b">
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9999420642852783</v>
+        <v>0.9796338677406311</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9997956156730652</v>
+        <v>0.9458173513412476</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9998284578323364</v>
+        <v>0.9526150226593018</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9996044039726257</v>
+        <v>0.9559414386749268</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.365069180727005</v>
+        <v>0.9949492216110229</v>
       </c>
     </row>
     <row r="83">
@@ -2746,19 +2746,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E83" t="b">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9992826581001282</v>
+        <v>0.998925507068634</v>
       </c>
     </row>
     <row r="84">
@@ -2774,19 +2774,19 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E84" t="b">
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.981438934803009</v>
+        <v>0.9930898547172546</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9964543581008911</v>
+        <v>0.9965155124664307</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9992719292640686</v>
+        <v>0.9969251751899719</v>
       </c>
     </row>
     <row r="87">
@@ -2858,19 +2858,19 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E87" t="b">
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9164227843284607</v>
+        <v>0.8350082635879517</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9964052438735962</v>
+        <v>0.9991748929023743</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9990859031677246</v>
+        <v>0.9915476441383362</v>
       </c>
     </row>
     <row r="90">
@@ -2942,19 +2942,19 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E90" t="b">
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9999291896820068</v>
+        <v>0.9458391070365906</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9994877576828003</v>
+        <v>0.9981197714805603</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.8734800219535828</v>
+        <v>0.998925507068634</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.995267927646637</v>
+        <v>0.6481059789657593</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9999103546142578</v>
+        <v>0.9883670210838318</v>
       </c>
     </row>
     <row r="95">
@@ -3087,14 +3087,14 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9979019165039062</v>
+        <v>0.4850784838199615</v>
       </c>
     </row>
     <row r="96">
@@ -3110,19 +3110,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9769895076751709</v>
+        <v>0.5325585007667542</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.999424934387207</v>
+        <v>0.9918830394744873</v>
       </c>
     </row>
     <row r="98">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E98" t="b">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9998998641967773</v>
+        <v>0.4375209212303162</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9995809197425842</v>
+        <v>0.9756214618682861</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9994891881942749</v>
+        <v>0.9581279158592224</v>
       </c>
     </row>
     <row r="101">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9667160511016846</v>
+        <v>0.7585548758506775</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9962418079376221</v>
+        <v>0.9920297861099243</v>
       </c>
     </row>
     <row r="103">
@@ -3311,14 +3311,14 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.7484186291694641</v>
+        <v>0.9977408647537231</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9997053742408752</v>
+        <v>0.8813313841819763</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9972656965255737</v>
+        <v>0.998925507068634</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9946358799934387</v>
+        <v>0.9994433522224426</v>
       </c>
     </row>
     <row r="107">
@@ -3418,19 +3418,19 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E107" t="b">
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9979436993598938</v>
+        <v>0.9756214618682861</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9979774355888367</v>
+        <v>0.9850496649742126</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E109" t="b">
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.990211009979248</v>
+        <v>0.7727283239364624</v>
       </c>
     </row>
     <row r="110">
@@ -3502,19 +3502,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E110" t="b">
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.8441572785377502</v>
+        <v>0.8617342710494995</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9989318251609802</v>
+        <v>0.9328402876853943</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9987112283706665</v>
+        <v>0.9713959097862244</v>
       </c>
     </row>
     <row r="113">
@@ -3586,19 +3586,19 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.7263641357421875</v>
+        <v>0.8112354874610901</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.993446409702301</v>
+        <v>0.4629128277301788</v>
       </c>
     </row>
     <row r="115">
@@ -3647,14 +3647,14 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9999291896820068</v>
+        <v>0.8819392323493958</v>
       </c>
     </row>
     <row r="116">
@@ -3670,19 +3670,19 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9998930692672729</v>
+        <v>0.3433603942394257</v>
       </c>
     </row>
     <row r="117">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3707,10 +3707,10 @@
         </is>
       </c>
       <c r="E117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9984679818153381</v>
+        <v>0.9478465914726257</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.997928261756897</v>
+        <v>0.8770056366920471</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E119" t="b">
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9947073459625244</v>
+        <v>0.7338586449623108</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9919496774673462</v>
+        <v>0.9942167997360229</v>
       </c>
     </row>
     <row r="121">
@@ -3810,19 +3810,19 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E121" t="b">
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9999169111251831</v>
+        <v>0.9297271370887756</v>
       </c>
     </row>
     <row r="122">
@@ -3838,19 +3838,19 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E122" t="b">
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9817805886268616</v>
+        <v>0.9750344157218933</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9955788254737854</v>
+        <v>0.993793249130249</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9998288154602051</v>
+        <v>0.9898684024810791</v>
       </c>
     </row>
     <row r="125">
@@ -3922,19 +3922,19 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E125" t="b">
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9854795336723328</v>
+        <v>0.9826472401618958</v>
       </c>
     </row>
     <row r="126">
@@ -3950,19 +3950,19 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E126" t="b">
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9659229516983032</v>
+        <v>0.9680570363998413</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.9990859031677246</v>
+        <v>0.9763355851173401</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9995686411857605</v>
+        <v>0.998925507068634</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9962093830108643</v>
+        <v>0.945543646812439</v>
       </c>
     </row>
     <row r="130">
@@ -4062,19 +4062,19 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9151076674461365</v>
+        <v>0.9623348116874695</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9942479133605957</v>
+        <v>0.8482184410095215</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9998181462287903</v>
+        <v>0.9898679256439209</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9996953010559082</v>
+        <v>0.9870125651359558</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9993066787719727</v>
+        <v>0.8564524054527283</v>
       </c>
     </row>
     <row r="135">
@@ -4207,14 +4207,14 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9999743700027466</v>
+        <v>0.6465421319007874</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E136" t="b">
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9942479133605957</v>
+        <v>0.998925507068634</v>
       </c>
     </row>
     <row r="137">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9181956648826599</v>
+        <v>0.9526692628860474</v>
       </c>
     </row>
     <row r="138">
@@ -4286,19 +4286,19 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E138" t="b">
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.7616707682609558</v>
+        <v>0.7716442346572876</v>
       </c>
     </row>
     <row r="139">
@@ -4314,19 +4314,19 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E139" t="b">
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9998902082443237</v>
+        <v>0.9695146083831787</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9975969195365906</v>
+        <v>0.461025208234787</v>
       </c>
     </row>
     <row r="141">
@@ -4370,19 +4370,19 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E141" t="b">
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9999164342880249</v>
+        <v>0.91400545835495</v>
       </c>
     </row>
     <row r="142">
@@ -4398,19 +4398,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9970490336418152</v>
+        <v>0.3765515089035034</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.6852693557739258</v>
+        <v>0.6489343047142029</v>
       </c>
     </row>
     <row r="144">
@@ -4454,19 +4454,19 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9999889135360718</v>
+        <v>0.9803506731987</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9947705864906311</v>
+        <v>0.7670174837112427</v>
       </c>
     </row>
     <row r="146">
@@ -4515,14 +4515,14 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9016216993331909</v>
+        <v>0.9967908263206482</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9982220530509949</v>
+        <v>0.9930073022842407</v>
       </c>
     </row>
     <row r="148">
@@ -4566,19 +4566,19 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E148" t="b">
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.468117356300354</v>
+        <v>0.9934553503990173</v>
       </c>
     </row>
     <row r="149">
@@ -4594,19 +4594,19 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9999291896820068</v>
+        <v>0.503960132598877</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E150" t="b">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9973075389862061</v>
+        <v>0.9331626892089844</v>
       </c>
     </row>
     <row r="151">
@@ -4650,19 +4650,19 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E151" t="b">
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.99702388048172</v>
+        <v>0.8450858592987061</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9995935559272766</v>
+        <v>0.9362615942955017</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9997546076774597</v>
+        <v>0.9990063309669495</v>
       </c>
     </row>
     <row r="154">
@@ -4739,14 +4739,14 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>0.8608585000038147</v>
+        <v>0.6192529797554016</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.7389373779296875</v>
+        <v>0.9895212650299072</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.5537098050117493</v>
+        <v>0.8862810730934143</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.999771773815155</v>
+        <v>0.9876931309700012</v>
       </c>
     </row>
     <row r="158">
@@ -4846,19 +4846,19 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E158" t="b">
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9990679621696472</v>
+        <v>0.9956064820289612</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9993476271629333</v>
+        <v>0.8828778862953186</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9994476437568665</v>
+        <v>0.8773815631866455</v>
       </c>
     </row>
     <row r="161">
@@ -4930,19 +4930,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E161" t="b">
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9977141618728638</v>
+        <v>0.7508955597877502</v>
       </c>
     </row>
     <row r="162">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -4967,10 +4967,10 @@
         </is>
       </c>
       <c r="E162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9999444484710693</v>
+        <v>0.9152868986129761</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.997980535030365</v>
+        <v>0.9958963394165039</v>
       </c>
     </row>
     <row r="164">
@@ -5014,19 +5014,19 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E164" t="b">
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9998471736907959</v>
+        <v>0.9229168295860291</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9979547262191772</v>
+        <v>0.9826975464820862</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9968202114105225</v>
+        <v>0.9526150226593018</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.999861478805542</v>
+        <v>0.9918830394744873</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E168" t="b">
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9986975193023682</v>
+        <v>0.9540584683418274</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9997230172157288</v>
+        <v>0.9788288474082947</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9977439641952515</v>
+        <v>0.9869939684867859</v>
       </c>
     </row>
     <row r="171">
@@ -5210,19 +5210,19 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E171" t="b">
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9810361862182617</v>
+        <v>0.9297271370887756</v>
       </c>
     </row>
     <row r="172">
@@ -5238,19 +5238,19 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E172" t="b">
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9999713897705078</v>
+        <v>0.8557249307632446</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.6137410402297974</v>
+        <v>0.9240932464599609</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9988037347793579</v>
+        <v>0.9707085490226746</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9949170351028442</v>
+        <v>0.9977408647537231</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9015069603919983</v>
+        <v>0.9638772010803223</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9685162901878357</v>
+        <v>0.994121253490448</v>
       </c>
     </row>
     <row r="178">
@@ -5406,19 +5406,19 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E178" t="b">
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9998284578323364</v>
+        <v>0.990423858165741</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9994334578514099</v>
+        <v>0.9940224289894104</v>
       </c>
     </row>
     <row r="180">
@@ -5462,19 +5462,19 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E180" t="b">
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9991377592086792</v>
+        <v>0.8156785368919373</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9855432510375977</v>
+        <v>0.9787136912345886</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9970995187759399</v>
+        <v>0.8708646297454834</v>
       </c>
     </row>
     <row r="183">
@@ -5546,19 +5546,19 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E183" t="b">
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9972635507583618</v>
+        <v>0.9988605976104736</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9987112283706665</v>
+        <v>0.9798843860626221</v>
       </c>
     </row>
     <row r="185">
@@ -5602,19 +5602,19 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9999597072601318</v>
+        <v>0.9650237560272217</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9034813046455383</v>
+        <v>0.9930898547172546</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9966365098953247</v>
+        <v>0.9985271692276001</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9984063506126404</v>
+        <v>0.8813313841819763</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9987112283706665</v>
+        <v>0.9991208910942078</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9985387325286865</v>
+        <v>0.9490501880645752</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9992690682411194</v>
+        <v>0.9946845173835754</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9962908029556274</v>
+        <v>0.9362615942955017</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.990448534488678</v>
+        <v>0.9308366775512695</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9990859031677246</v>
+        <v>0.990423858165741</v>
       </c>
     </row>
     <row r="195">
@@ -5887,14 +5887,14 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.8784424662590027</v>
+        <v>0.9764367341995239</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9999458789825439</v>
+        <v>0.9917815327644348</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9992678761482239</v>
+        <v>0.8138605356216431</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9999281167984009</v>
+        <v>0.9968609809875488</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9146106839179993</v>
+        <v>0.9144006371498108</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9998410940170288</v>
+        <v>0.9363571405410767</v>
       </c>
     </row>
     <row r="201">
@@ -6050,19 +6050,19 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>0.998324453830719</v>
+        <v>0.6678215265274048</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9997419714927673</v>
+        <v>0.6212736964225769</v>
       </c>
     </row>
     <row r="203">
@@ -6111,14 +6111,14 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.8850609660148621</v>
+        <v>0.9796338677406311</v>
       </c>
     </row>
     <row r="204">
@@ -6134,19 +6134,19 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E204" t="b">
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9986975193023682</v>
+        <v>0.9261499643325806</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9981550574302673</v>
+        <v>0.9899545907974243</v>
       </c>
     </row>
     <row r="206">
@@ -6190,19 +6190,19 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E206" t="b">
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9992048144340515</v>
+        <v>0.9817713499069214</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.4708924889564514</v>
+        <v>0.9927719235420227</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9998782873153687</v>
+        <v>0.9918830394744873</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9998668432235718</v>
+        <v>0.9988481998443604</v>
       </c>
     </row>
     <row r="210">
@@ -6307,14 +6307,14 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.8443999886512756</v>
+        <v>0.96864253282547</v>
       </c>
     </row>
   </sheetData>
